--- a/compare.xlsx
+++ b/compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fluid_Mechanic\GeneralCouteeFlow\Newton-Raphson-Matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA52EAAF-BFA1-4869-B41B-C8636BF5046E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA6E93C-B698-4B30-8C05-089662A8C7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA31CBFE-9B7D-4ABD-907F-DC0AB9EF1C0D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Np_A</t>
   </si>
@@ -62,10 +62,28 @@
     <t>sr_J</t>
   </si>
   <si>
-    <t>sr_lastweek</t>
+    <t>Np_rect</t>
   </si>
   <si>
-    <t>mu_lastweek</t>
+    <t>Re_rect</t>
+  </si>
+  <si>
+    <t>mu_rect</t>
+  </si>
+  <si>
+    <t>sr_rect</t>
+  </si>
+  <si>
+    <t>Np_rect_to_annulus</t>
+  </si>
+  <si>
+    <t>Re_rect_to_annulus</t>
+  </si>
+  <si>
+    <t>mu_rect_to_annulus</t>
+  </si>
+  <si>
+    <t>sr_rect_to_annulus</t>
   </si>
 </sst>
 </file>
@@ -87,12 +105,24 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,12 +137,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,55 +483,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65F1BD1-B963-47FE-8086-492B02A0A0A9}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="19.42578125" customWidth="1"/>
     <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="23" customWidth="1"/>
+    <col min="14" max="14" width="22.28515625" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" customWidth="1"/>
+    <col min="16" max="16" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>13624.398400874999</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>2.44659537479139E-9</v>
       </c>
       <c r="C2">
@@ -507,7 +567,7 @@
       <c r="E2">
         <v>18982581353.527</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>9.8497668213738501E-10</v>
       </c>
       <c r="G2">
@@ -517,17 +577,35 @@
         <v>8.9556694858738892E-3</v>
       </c>
       <c r="I2">
-        <v>9.3519172801545203E-2</v>
-      </c>
-      <c r="J2">
-        <v>25.801190023278799</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>89983197.125852406</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8.7027358997340404E-9</v>
+      </c>
+      <c r="K2">
+        <v>130.10467969058701</v>
+      </c>
+      <c r="L2">
+        <v>1.6378257899151601E-3</v>
+      </c>
+      <c r="M2">
+        <v>53.271262906789602</v>
+      </c>
+      <c r="N2" s="1">
+        <v>9.9315879998777403E-8</v>
+      </c>
+      <c r="O2">
+        <v>75.278774392781898</v>
+      </c>
+      <c r="P2">
+        <v>6.6695934967601197E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8104.1866886434</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>4.1131073841878301E-9</v>
       </c>
       <c r="C3">
@@ -539,7 +617,7 @@
       <c r="E3">
         <v>9574622193.1805</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>1.9528081236789899E-9</v>
       </c>
       <c r="G3">
@@ -549,17 +627,35 @@
         <v>1.57762197992223E-2</v>
       </c>
       <c r="I3">
-        <v>0.149277539009709</v>
-      </c>
-      <c r="J3">
-        <v>21.399430383819599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>52190751.640232198</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.5004574093857899E-8</v>
+      </c>
+      <c r="K3">
+        <v>111.17276568902</v>
+      </c>
+      <c r="L3">
+        <v>2.4266323066373498E-3</v>
+      </c>
+      <c r="M3">
+        <v>31.206588962601401</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1.69537348685385E-7</v>
+      </c>
+      <c r="O3">
+        <v>64.646793677416497</v>
+      </c>
+      <c r="P3">
+        <v>9.7773352592748202E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4777.6908399365102</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>6.9768830233349397E-9</v>
       </c>
       <c r="C4">
@@ -571,7 +667,7 @@
       <c r="E4">
         <v>5603870830.6130505</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>3.3365151633865501E-9</v>
       </c>
       <c r="G4">
@@ -581,17 +677,35 @@
         <v>2.31080510650198E-2</v>
       </c>
       <c r="I4">
-        <v>0.240556490134328</v>
-      </c>
-      <c r="J4">
-        <v>17.681258296893901</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30479766.234858599</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2.56924542650986E-8</v>
+      </c>
+      <c r="K4">
+        <v>95.327599875386994</v>
+      </c>
+      <c r="L4">
+        <v>3.5641284984833299E-3</v>
+      </c>
+      <c r="M4">
+        <v>18.173911445869901</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2.9111412642193602E-7</v>
+      </c>
+      <c r="O4">
+        <v>55.353272876949703</v>
+      </c>
+      <c r="P4">
+        <v>1.4375227119119699E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2801.7674123235602</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>1.1897272402155599E-8</v>
       </c>
       <c r="C5">
@@ -603,7 +717,7 @@
       <c r="E5">
         <v>3275625515.4190502</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>5.7080395521366703E-9</v>
       </c>
       <c r="G5">
@@ -613,17 +727,35 @@
         <v>3.3902930131400298E-2</v>
       </c>
       <c r="I5">
-        <v>0.38777627052101599</v>
-      </c>
-      <c r="J5">
-        <v>14.607217913826201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17819884.666630302</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4.3945290031334601E-8</v>
+      </c>
+      <c r="K5">
+        <v>81.783508481508406</v>
+      </c>
+      <c r="L5">
+        <v>5.2280009254150996E-3</v>
+      </c>
+      <c r="M5">
+        <v>10.6207387518345</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4.9814636042339299E-7</v>
+      </c>
+      <c r="O5">
+        <v>47.479415011479702</v>
+      </c>
+      <c r="P5">
+        <v>2.10994167955726E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1646.94065405578</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>2.02395818148083E-8</v>
       </c>
       <c r="C6">
@@ -635,7 +767,7 @@
       <c r="E6">
         <v>1977672314.91557</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>9.4542457104670496E-9</v>
       </c>
       <c r="G6">
@@ -645,17 +777,35 @@
         <v>4.7778327327489802E-2</v>
       </c>
       <c r="I6">
-        <v>0.62591063547414205</v>
-      </c>
-      <c r="J6">
-        <v>12.061326321467901</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10416272.7038559</v>
+      </c>
+      <c r="J6" s="1">
+        <v>7.5180443356683094E-8</v>
+      </c>
+      <c r="K6">
+        <v>70.1556561499644</v>
+      </c>
+      <c r="L6">
+        <v>7.67084615834898E-3</v>
+      </c>
+      <c r="M6">
+        <v>6.2068986486744198</v>
+      </c>
+      <c r="N6" s="1">
+        <v>8.5238742465432998E-7</v>
+      </c>
+      <c r="O6">
+        <v>40.725146739156699</v>
+      </c>
+      <c r="P6">
+        <v>3.0967619482907601E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>964.26043269843899</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>3.4568866440588E-8</v>
       </c>
       <c r="C7">
@@ -667,7 +817,7 @@
       <c r="E7">
         <v>1123005083.0938799</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>1.66494348792159E-8</v>
       </c>
       <c r="G7">
@@ -677,17 +827,35 @@
         <v>7.2673390047443998E-2</v>
       </c>
       <c r="I7">
-        <v>1.01003518400681</v>
-      </c>
-      <c r="J7">
-        <v>9.9601389931567699</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6133606.6890933402</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.27673657554941E-7</v>
+      </c>
+      <c r="K7">
+        <v>60.404003047232599</v>
+      </c>
+      <c r="L7">
+        <v>1.11515618637724E-2</v>
+      </c>
+      <c r="M7">
+        <v>3.6272845850748499</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1.45857933948815E-6</v>
+      </c>
+      <c r="O7">
+        <v>34.931218510199002</v>
+      </c>
+      <c r="P7">
+        <v>4.54518875156995E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>562.74794736933802</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>5.9233250459141699E-8</v>
       </c>
       <c r="C8">
@@ -699,7 +867,7 @@
       <c r="E8">
         <v>660309807.61919403</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>2.8316102205743601E-8</v>
       </c>
       <c r="G8">
@@ -709,17 +877,35 @@
         <v>0.10584778824034199</v>
       </c>
       <c r="I8">
-        <v>1.63418534559544</v>
-      </c>
-      <c r="J8">
-        <v>8.2163602969751395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3588205.72316312</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2.1824278216402601E-7</v>
+      </c>
+      <c r="K8">
+        <v>51.838293212512802</v>
+      </c>
+      <c r="L8">
+        <v>1.63445611898679E-2</v>
+      </c>
+      <c r="M8">
+        <v>2.1201049510491998</v>
+      </c>
+      <c r="N8" s="1">
+        <v>2.4954813447399199E-6</v>
+      </c>
+      <c r="O8">
+        <v>29.9644238844682</v>
+      </c>
+      <c r="P8">
+        <v>6.6706536167541602E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>328.84239361184899</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>1.01365854158212E-7</v>
       </c>
       <c r="C9">
@@ -731,7 +917,7 @@
       <c r="E9">
         <v>400983144.07239801</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>4.6628892701345503E-8</v>
       </c>
       <c r="G9">
@@ -741,17 +927,35 @@
         <v>0.14824947611005199</v>
       </c>
       <c r="I9">
-        <v>2.6385776390535698</v>
-      </c>
-      <c r="J9">
-        <v>6.7834721910850897</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2099108.38467154</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3.7306315658518901E-7</v>
+      </c>
+      <c r="K9">
+        <v>44.486658734266001</v>
+      </c>
+      <c r="L9">
+        <v>2.39566191704833E-2</v>
+      </c>
+      <c r="M9">
+        <v>1.2389126731033699</v>
+      </c>
+      <c r="N9" s="1">
+        <v>4.2704239524657896E-6</v>
+      </c>
+      <c r="O9">
+        <v>25.700785209580499</v>
+      </c>
+      <c r="P9">
+        <v>9.7909653734838398E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>192.34809578340301</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>1.7329721916993399E-7</v>
       </c>
       <c r="C10">
@@ -763,7 +967,7 @@
       <c r="E10">
         <v>233458223.16209</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>8.0088847361004699E-8</v>
       </c>
       <c r="G10">
@@ -773,17 +977,35 @@
         <v>0.21858104126894801</v>
       </c>
       <c r="I10">
-        <v>4.2608658220228097</v>
-      </c>
-      <c r="J10">
-        <v>5.6001654351710197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1227061.6089802</v>
+      </c>
+      <c r="J10" s="1">
+        <v>6.3819126461859203E-7</v>
+      </c>
+      <c r="K10">
+        <v>38.163062836482197</v>
+      </c>
+      <c r="L10">
+        <v>3.5147298027967802E-2</v>
+      </c>
+      <c r="M10">
+        <v>0.72407199128126798</v>
+      </c>
+      <c r="N10" s="1">
+        <v>7.3068457528263298E-6</v>
+      </c>
+      <c r="O10">
+        <v>22.045323575354502</v>
+      </c>
+      <c r="P10">
+        <v>0.14369926519149501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>115.973979609701</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>2.8742128384380799E-7</v>
       </c>
       <c r="C11">
@@ -795,7 +1017,7 @@
       <c r="E11">
         <v>137689298.90358201</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>1.3579414049520999E-7</v>
       </c>
       <c r="G11">
@@ -805,17 +1027,35 @@
         <v>0.316820284735082</v>
       </c>
       <c r="I11">
-        <v>6.8812889704013598</v>
-      </c>
-      <c r="J11">
-        <v>4.6230871632769697</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>709932.14074180694</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.103063173308E-6</v>
+      </c>
+      <c r="K11">
+        <v>32.569908538352699</v>
+      </c>
+      <c r="L11">
+        <v>5.2234645605415402E-2</v>
+      </c>
+      <c r="M11">
+        <v>0.42314791208397501</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1.25031512696772E-5</v>
+      </c>
+      <c r="O11">
+        <v>18.909121535099199</v>
+      </c>
+      <c r="P11">
+        <v>0.21091087281333801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>65.686125576704498</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>5.07464701552097E-7</v>
       </c>
       <c r="C12">
@@ -827,7 +1067,7 @@
       <c r="E12">
         <v>79627532.826828703</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>2.3481074116238801E-7</v>
       </c>
       <c r="G12">
@@ -837,17 +1077,35 @@
         <v>0.47149416507553799</v>
       </c>
       <c r="I12">
-        <v>11.111597009917199</v>
-      </c>
-      <c r="J12">
-        <v>3.8167121472025198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>414896.14509018097</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.8874602940207799E-6</v>
+      </c>
+      <c r="K12">
+        <v>27.937011531867299</v>
+      </c>
+      <c r="L12">
+        <v>7.6656702292452E-2</v>
+      </c>
+      <c r="M12">
+        <v>0.247355338086446</v>
+      </c>
+      <c r="N12" s="1">
+        <v>2.1388996070038499E-5</v>
+      </c>
+      <c r="O12">
+        <v>16.2213212253729</v>
+      </c>
+      <c r="P12">
+        <v>0.30951717682997099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>38.363278451267803</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>8.6888794330335103E-7</v>
       </c>
       <c r="C13">
@@ -859,7 +1117,7 @@
       <c r="E13">
         <v>47044869.442773402</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>3.9743759992243202E-7</v>
       </c>
       <c r="G13">
@@ -869,17 +1127,35 @@
         <v>0.68265384825076403</v>
       </c>
       <c r="I13">
-        <v>17.980906248116298</v>
-      </c>
-      <c r="J13">
-        <v>3.1482946353627601</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>242350.42686238501</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3.2312713872159701E-6</v>
+      </c>
+      <c r="K13">
+        <v>23.9565145491217</v>
+      </c>
+      <c r="L13">
+        <v>0.11257473123188</v>
+      </c>
+      <c r="M13">
+        <v>0.144544874172396</v>
+      </c>
+      <c r="N13" s="1">
+        <v>3.6602351930681001E-5</v>
+      </c>
+      <c r="O13">
+        <v>13.913132618918899</v>
+      </c>
+      <c r="P13">
+        <v>0.45429927887251598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>22.430621877822599</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>1.48606624878524E-6</v>
       </c>
       <c r="C14">
@@ -891,7 +1167,7 @@
       <c r="E14">
         <v>26792341.049768601</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>6.9786361577244403E-7</v>
       </c>
       <c r="G14">
@@ -901,17 +1177,35 @@
         <v>1.0335847552330999</v>
       </c>
       <c r="I14">
-        <v>29.0418944309043</v>
-      </c>
-      <c r="J14">
-        <v>2.5989027163478902</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>141653.60075749899</v>
+      </c>
+      <c r="J14" s="1">
+        <v>5.5282745783540699E-6</v>
+      </c>
+      <c r="K14">
+        <v>20.5507158499036</v>
+      </c>
+      <c r="L14">
+        <v>0.16517054964248301</v>
+      </c>
+      <c r="M14">
+        <v>8.4482293047822093E-2</v>
+      </c>
+      <c r="N14" s="1">
+        <v>6.2624748493026594E-5</v>
+      </c>
+      <c r="O14">
+        <v>11.934444939811</v>
+      </c>
+      <c r="P14">
+        <v>0.66673975339153302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13.1060523825444</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>2.5433585292465102E-6</v>
       </c>
       <c r="C15">
@@ -923,7 +1217,7 @@
       <c r="E15">
         <v>15810038.8152158</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>1.1826283425696199E-6</v>
       </c>
       <c r="G15">
@@ -933,17 +1227,35 @@
         <v>1.49867031225815</v>
       </c>
       <c r="I15">
-        <v>46.917035483954002</v>
-      </c>
-      <c r="J15">
-        <v>2.1451999336989598</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>82757.6113599417</v>
+      </c>
+      <c r="J15" s="1">
+        <v>9.4625737395201693E-6</v>
+      </c>
+      <c r="K15">
+        <v>17.6245213959929</v>
+      </c>
+      <c r="L15">
+        <v>0.24249716697606799</v>
+      </c>
+      <c r="M15">
+        <v>4.9383610414463902E-2</v>
+      </c>
+      <c r="N15">
+        <v>1.07134377374005E-4</v>
+      </c>
+      <c r="O15">
+        <v>10.2381089371722</v>
+      </c>
+      <c r="P15">
+        <v>0.97849075449464995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7.6950593215225398</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>4.33179118173459E-6</v>
       </c>
       <c r="C16">
@@ -955,7 +1267,7 @@
       <c r="E16">
         <v>9318671.3921054807</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>2.0064448260124202E-6</v>
       </c>
       <c r="G16">
@@ -965,17 +1277,35 @@
         <v>2.1758632495397001</v>
       </c>
       <c r="I16">
-        <v>75.789494987087906</v>
-      </c>
-      <c r="J16">
-        <v>1.7707465108276299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48396.640948220098</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.61808750495276E-5</v>
+      </c>
+      <c r="K16">
+        <v>15.1221735073681</v>
+      </c>
+      <c r="L16">
+        <v>0.35560221559351701</v>
+      </c>
+      <c r="M16">
+        <v>2.88562160171064E-2</v>
+      </c>
+      <c r="N16">
+        <v>1.83346366380735E-4</v>
+      </c>
+      <c r="O16">
+        <v>8.7810246517578108</v>
+      </c>
+      <c r="P16">
+        <v>1.4362354233477801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4.4800236131020403</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>7.4404496472765903E-6</v>
       </c>
       <c r="C17">
@@ -987,7 +1317,7 @@
       <c r="E17">
         <v>5193952.0520433001</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>3.59984070177245E-6</v>
       </c>
       <c r="G17">
@@ -997,17 +1327,35 @@
         <v>3.3878447545896702</v>
       </c>
       <c r="I17">
-        <v>122.45444592341499</v>
-      </c>
-      <c r="J17">
-        <v>1.46153822033308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>28241.6539545753</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2.7728545971831601E-5</v>
+      </c>
+      <c r="K17">
+        <v>12.9613720230805</v>
+      </c>
+      <c r="L17">
+        <v>0.52284451908355301</v>
+      </c>
+      <c r="M17">
+        <v>1.68626098626234E-2</v>
+      </c>
+      <c r="N17">
+        <v>3.1375228374114298E-4</v>
+      </c>
+      <c r="O17">
+        <v>7.5315713537299498</v>
+      </c>
+      <c r="P17">
+        <v>2.1080486081393399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2.6249171621145599</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>1.2698835069158301E-5</v>
       </c>
       <c r="C18">
@@ -1019,7 +1367,7 @@
       <c r="E18">
         <v>3193582.8483539699</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>5.8546782369015398E-6</v>
       </c>
       <c r="G18">
@@ -1029,17 +1377,35 @@
         <v>4.6703589463884496</v>
       </c>
       <c r="I18">
-        <v>197.79352126276899</v>
-      </c>
-      <c r="J18">
-        <v>1.2064662438596401</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>16529.8437115835</v>
+      </c>
+      <c r="J18" s="1">
+        <v>4.7374918581428299E-5</v>
+      </c>
+      <c r="K18">
+        <v>11.1261404933925</v>
+      </c>
+      <c r="L18">
+        <v>0.76584106695714804</v>
+      </c>
+      <c r="M18">
+        <v>9.8556779851209798E-3</v>
+      </c>
+      <c r="N18">
+        <v>5.36815667295677E-4</v>
+      </c>
+      <c r="O18">
+        <v>6.4605691783502204</v>
+      </c>
+      <c r="P18">
+        <v>3.0938844797355198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.5195492498591201</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>2.1936367060815101E-5</v>
       </c>
       <c r="C19">
@@ -1051,7 +1417,7 @@
       <c r="E19">
         <v>1832445.1803043999</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>1.0203524886291E-5</v>
       </c>
       <c r="G19">
@@ -1061,17 +1427,35 @@
         <v>7.0070313771923098</v>
       </c>
       <c r="I19">
-        <v>319.55392959986699</v>
-      </c>
-      <c r="J19">
-        <v>0.99582341794906004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9661.0000296986109</v>
+      </c>
+      <c r="J19" s="1">
+        <v>8.1057861255842502E-5</v>
+      </c>
+      <c r="K19">
+        <v>9.5437997994826205</v>
+      </c>
+      <c r="L19">
+        <v>1.1238198496412499</v>
+      </c>
+      <c r="M19">
+        <v>5.76026676213024E-3</v>
+      </c>
+      <c r="N19">
+        <v>9.1847870466982501E-4</v>
+      </c>
+      <c r="O19">
+        <v>5.5417586284696201</v>
+      </c>
+      <c r="P19">
+        <v>4.5407211030236603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.89491492149209095</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>3.7247552042510498E-5</v>
       </c>
       <c r="C20">
@@ -1083,7 +1467,7 @@
       <c r="E20">
         <v>1074100.72590522</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>1.74074921923569E-5</v>
       </c>
       <c r="G20">
@@ -1093,27 +1477,54 @@
         <v>10.243949370066399</v>
       </c>
       <c r="I20">
-        <v>516.21026489107703</v>
+        <v>5645.8290312583604</v>
       </c>
       <c r="J20">
-        <v>0.821995321097581</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F23" s="2"/>
+        <v>1.3870416473193501E-4</v>
+      </c>
+      <c r="K20">
+        <v>8.1860075040119806</v>
+      </c>
+      <c r="L20">
+        <v>1.6493759357137301</v>
+      </c>
+      <c r="M20">
+        <v>3.3666894480140299E-3</v>
+      </c>
+      <c r="N20">
+        <v>1.5714791744023001E-3</v>
+      </c>
+      <c r="O20">
+        <v>4.7536526706280204</v>
+      </c>
+      <c r="P20">
+        <v>6.6641414510765102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M29" s="1"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+      <c r="A38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/compare.xlsx
+++ b/compare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fluid_Mechanic\GeneralCouteeFlow\Newton-Raphson-Matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA6E93C-B698-4B30-8C05-089662A8C7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D944CD-7DAE-4258-9FF9-B20671FEC301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA31CBFE-9B7D-4ABD-907F-DC0AB9EF1C0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA31CBFE-9B7D-4ABD-907F-DC0AB9EF1C0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -486,7 +486,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +586,7 @@
         <v>130.10467969058701</v>
       </c>
       <c r="L2">
-        <v>1.6378257899151601E-3</v>
+        <v>1.6609536767999999E-3</v>
       </c>
       <c r="M2">
         <v>53.271262906789602</v>
@@ -636,7 +636,7 @@
         <v>111.17276568902</v>
       </c>
       <c r="L3">
-        <v>2.4266323066373498E-3</v>
+        <v>2.4469825967999999E-3</v>
       </c>
       <c r="M3">
         <v>31.206588962601401</v>
@@ -686,7 +686,7 @@
         <v>95.327599875386994</v>
       </c>
       <c r="L4">
-        <v>3.5641284984833299E-3</v>
+        <v>3.5928000576E-3</v>
       </c>
       <c r="M4">
         <v>18.173911445869901</v>
@@ -736,7 +736,7 @@
         <v>81.783508481508406</v>
       </c>
       <c r="L5">
-        <v>5.2280009254150996E-3</v>
+        <v>5.2721392320000003E-3</v>
       </c>
       <c r="M5">
         <v>10.6207387518345</v>
@@ -786,7 +786,7 @@
         <v>70.1556561499644</v>
       </c>
       <c r="L6">
-        <v>7.67084615834898E-3</v>
+        <v>7.7370672480000001E-3</v>
       </c>
       <c r="M6">
         <v>6.2068986486744198</v>
@@ -836,7 +836,7 @@
         <v>60.404003047232599</v>
       </c>
       <c r="L7">
-        <v>1.11515618637724E-2</v>
+        <v>1.1312948736E-2</v>
       </c>
       <c r="M7">
         <v>3.6272845850748499</v>
@@ -886,7 +886,7 @@
         <v>51.838293212512802</v>
       </c>
       <c r="L8">
-        <v>1.63445611898679E-2</v>
+        <v>1.659584544E-2</v>
       </c>
       <c r="M8">
         <v>2.1201049510491998</v>
@@ -936,7 +936,7 @@
         <v>44.486658734266001</v>
       </c>
       <c r="L9">
-        <v>2.39566191704833E-2</v>
+        <v>2.4345626063999998E-2</v>
       </c>
       <c r="M9">
         <v>1.2389126731033699</v>
@@ -986,7 +986,7 @@
         <v>38.163062836482197</v>
       </c>
       <c r="L10">
-        <v>3.5147298027967802E-2</v>
+        <v>3.5727520415999997E-2</v>
       </c>
       <c r="M10">
         <v>0.72407199128126798</v>
@@ -1036,7 +1036,7 @@
         <v>32.569908538352699</v>
       </c>
       <c r="L11">
-        <v>5.2234645605415402E-2</v>
+        <v>5.2701833279999999E-2</v>
       </c>
       <c r="M11">
         <v>0.42314791208397501</v>
@@ -1086,7 +1086,7 @@
         <v>27.937011531867299</v>
       </c>
       <c r="L12">
-        <v>7.6656702292452E-2</v>
+        <v>7.7351113439999994E-2</v>
       </c>
       <c r="M12">
         <v>0.247355338086446</v>
@@ -1136,7 +1136,7 @@
         <v>23.9565145491217</v>
       </c>
       <c r="L13">
-        <v>0.11257473123188</v>
+        <v>0.11355489648</v>
       </c>
       <c r="M13">
         <v>0.144544874172396</v>
@@ -1186,7 +1186,7 @@
         <v>20.5507158499036</v>
       </c>
       <c r="L14">
-        <v>0.16517054964248301</v>
+        <v>0.16665769008</v>
       </c>
       <c r="M14">
         <v>8.4482293047822093E-2</v>
@@ -1236,7 +1236,7 @@
         <v>17.6245213959929</v>
       </c>
       <c r="L15">
-        <v>0.24249716697606799</v>
+        <v>0.24464447232</v>
       </c>
       <c r="M15">
         <v>4.9383610414463902E-2</v>
@@ -1286,7 +1286,7 @@
         <v>15.1221735073681</v>
       </c>
       <c r="L16">
-        <v>0.35560221559351701</v>
+        <v>0.35894261232000002</v>
       </c>
       <c r="M16">
         <v>2.88562160171064E-2</v>
@@ -1336,7 +1336,7 @@
         <v>12.9613720230805</v>
       </c>
       <c r="L17">
-        <v>0.52284451908355301</v>
+        <v>0.52721392320000005</v>
       </c>
       <c r="M17">
         <v>1.68626098626234E-2</v>
@@ -1386,7 +1386,7 @@
         <v>11.1261404933925</v>
       </c>
       <c r="L18">
-        <v>0.76584106695714804</v>
+        <v>0.77321774880000005</v>
       </c>
       <c r="M18">
         <v>9.8556779851209798E-3</v>
@@ -1436,7 +1436,7 @@
         <v>9.5437997994826205</v>
       </c>
       <c r="L19">
-        <v>1.1238198496412499</v>
+        <v>1.1348155008</v>
       </c>
       <c r="M19">
         <v>5.76026676213024E-3</v>
@@ -1486,7 +1486,7 @@
         <v>8.1860075040119806</v>
       </c>
       <c r="L20">
-        <v>1.6493759357137301</v>
+        <v>1.6655989488</v>
       </c>
       <c r="M20">
         <v>3.3666894480140299E-3</v>
